--- a/outputs/shaclplay/SHACL-resource.xlsx
+++ b/outputs/shaclplay/SHACL-resource.xlsx
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-01-21 11:06:17</t>
+          <t>2026-01-29 16:30:38</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
